--- a/12-DC/04-逾期风控预测/sub_records.xlsx
+++ b/12-DC/04-逾期风控预测/sub_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>训练F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,14 @@
   </si>
   <si>
     <t>特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天日期减posting_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSMONTH减posting_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,15 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,15 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
     <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,7 +468,7 @@
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.54655900000000002</v>
       </c>
       <c r="D6" s="2">
@@ -470,9 +476,40 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="G7" s="1">
         <v>0.54207399999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.53541300000000003</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.53588499999999994</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.53448099999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.52830200000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/12-DC/04-逾期风控预测/sub_records.xlsx
+++ b/12-DC/04-逾期风控预测/sub_records.xlsx
@@ -390,13 +390,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
     <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/12-DC/04-逾期风控预测/sub_records.xlsx
+++ b/12-DC/04-逾期风控预测/sub_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>训练F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>SSMONTH减posting_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift 逾期告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加year, month, 效果变差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,14 +73,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -100,12 +109,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,129 +396,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>20210528</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.54207399999999994</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.52914799999999995</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>20210529</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.537443</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.52132699999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="C4" s="1">
         <v>0.54847999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.52830200000000005</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
         <v>0.54655900000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.52830200000000005</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="G7" s="1">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="3">
         <v>0.54207399999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.53541300000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.53588499999999994</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.53448099999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.52830200000000005</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>20210606</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.544346</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.530806</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>0.93008199999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.46060600000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>

--- a/12-DC/04-逾期风控预测/sub_records.xlsx
+++ b/12-DC/04-逾期风控预测/sub_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>训练F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>加year, month, 效果变差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入orders表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,11 +114,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -439,7 +443,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>20210529</v>
       </c>
       <c r="C3" s="1">
@@ -453,7 +457,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="C4" s="1">
         <v>0.54847999999999997</v>
       </c>
@@ -465,7 +469,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C6" s="1">
@@ -476,7 +480,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.54207399999999994</v>
       </c>
     </row>
@@ -545,6 +549,23 @@
       </c>
       <c r="E13" s="1">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>20210607</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.54900300000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.53811699999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>

--- a/12-DC/04-逾期风控预测/sub_records.xlsx
+++ b/12-DC/04-逾期风控预测/sub_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>训练F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>加入orders表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减去RZQS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -568,6 +572,45 @@
         <v>0.52</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>20210608</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.55510499999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.55045900000000003</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="1">
+        <v>0.55540500000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.55045900000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.55407200000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.54708500000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>

--- a/12-DC/04-逾期风控预测/sub_records.xlsx
+++ b/12-DC/04-逾期风控预测/sub_records.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>训练F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>减去RZQS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入iot_a表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -611,6 +615,34 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20210611</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.55726900000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.54954999999999998</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>0.56188099999999996</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.55454499999999995</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
